--- a/Templates/metabolic rate/10_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/10_template_metabolic_rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FCB7B-F80A-4A82-9114-5D2A5F861995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAABCB4D-06B2-4730-9836-53751B070EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="8" r:id="rId1"/>
@@ -849,7 +849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:BY1"/>
+      <selection pane="bottomLeft" activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B41"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
